--- a/Équipe2.xlsx
+++ b/Équipe2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="145">
   <si>
     <t>Membres</t>
   </si>
@@ -456,6 +456,12 @@
   </si>
   <si>
     <t>Scrum</t>
+  </si>
+  <si>
+    <t>Tutorial ASP.NET</t>
+  </si>
+  <si>
+    <t>Package 3 BD</t>
   </si>
 </sst>
 </file>
@@ -5124,8 +5130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5191,15 +5197,15 @@
       </c>
       <c r="K5" s="15">
         <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="0"/>
@@ -5318,11 +5324,11 @@
       </c>
       <c r="K9" s="15">
         <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="1"/>
@@ -5750,36 +5756,70 @@
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="12"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="12">
+        <v>42306</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="12"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="16"/>
+      <c r="B35" s="12">
+        <v>42306</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F35" s="16">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="12"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="16"/>
+      <c r="B36" s="12">
+        <v>42306</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="12"/>
-      <c r="C37" s="1"/>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="16"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="12"/>
-      <c r="C38" s="1"/>
+      <c r="C38" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="16"/>

--- a/Équipe2.xlsx
+++ b/Équipe2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="168" windowWidth="14808" windowHeight="7956" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Infos" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="10-19" sheetId="5" r:id="rId5"/>
     <sheet name="10-26" sheetId="6" r:id="rId6"/>
     <sheet name="11-02" sheetId="7" r:id="rId7"/>
+    <sheet name="11-09" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Code">Infos!$F$4:$F$10</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="157">
   <si>
     <t>Membres</t>
   </si>
@@ -462,6 +463,42 @@
   </si>
   <si>
     <t>Package 3 BD</t>
+  </si>
+  <si>
+    <t>Ajout de la gestion utilisateur dans employé</t>
+  </si>
+  <si>
+    <t>Correction DN Cas de Test</t>
+  </si>
+  <si>
+    <t>Fussioner les modifications du package 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagramme de Séquence modifier/ajouter Cas de Test </t>
+  </si>
+  <si>
+    <t>Correction Equipe</t>
+  </si>
+  <si>
+    <t>Prototype interface recherche</t>
+  </si>
+  <si>
+    <t>Ebergement</t>
+  </si>
+  <si>
+    <t>Correction package 2</t>
+  </si>
+  <si>
+    <t>DN de type test</t>
+  </si>
+  <si>
+    <t>diagramme de classe conceptuel</t>
+  </si>
+  <si>
+    <t>diagramme de sequence</t>
+  </si>
+  <si>
+    <t>DCR</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1153,7 @@
   </sheetPr>
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -1947,7 +1984,7 @@
   </sheetPr>
   <dimension ref="B3:P62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -3072,7 +3109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="C4" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -3857,7 +3894,7 @@
   <dimension ref="B3:P70"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5130,8 +5167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5205,15 +5242,15 @@
       </c>
       <c r="M5" s="15">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="O5" s="15">
         <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
-        <v>13</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
@@ -5320,7 +5357,7 @@
       </c>
       <c r="J9" s="15">
         <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
@@ -5328,7 +5365,7 @@
       </c>
       <c r="L9" s="15">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="1"/>
@@ -5807,57 +5844,123 @@
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="12"/>
+      <c r="B37" s="12">
+        <v>42306</v>
+      </c>
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="16"/>
+      <c r="D37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="16">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="12"/>
+      <c r="B38" s="12">
+        <v>42308</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="16"/>
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="12"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="16"/>
+      <c r="B39" s="12">
+        <v>42308</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F39" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="12"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="16"/>
+      <c r="B40" s="12">
+        <v>42306</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F40" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="12"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="16"/>
+      <c r="B41" s="12">
+        <v>42308</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="16">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B42" s="12"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="16"/>
+      <c r="B42" s="12">
+        <v>42308</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B43" s="12"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="16"/>
+      <c r="B43" s="12">
+        <v>42309</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F43" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="12"/>
@@ -5998,8 +6101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6044,42 +6147,62 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="12"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="16"/>
+      <c r="B5" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
       <c r="J5" s="15">
         <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="O5" s="15">
         <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
-      <c r="B6" s="12"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="16"/>
+      <c r="B6" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1.5</v>
+      </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="14"/>
@@ -6089,11 +6212,21 @@
       <c r="P6" s="14"/>
     </row>
     <row r="7" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="12"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="16"/>
+      <c r="B7" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="16">
+        <v>1</v>
+      </c>
       <c r="J7" s="13"/>
       <c r="K7" s="13"/>
       <c r="L7" s="13"/>
@@ -6103,11 +6236,21 @@
       <c r="P7" s="14"/>
     </row>
     <row r="8" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="12"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="16"/>
+      <c r="B8" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1</v>
+      </c>
       <c r="J8" s="15" t="s">
         <v>15</v>
       </c>
@@ -6131,22 +6274,32 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="12"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="16"/>
+      <c r="B9" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1</v>
+      </c>
       <c r="J9" s="15">
         <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="K9" s="15">
         <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M9" s="15">
         <f t="shared" si="1"/>
@@ -6158,7 +6311,7 @@
       </c>
       <c r="O9" s="15">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P9" s="15">
         <f t="shared" si="1"/>
@@ -6166,74 +6319,174 @@
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="16"/>
+      <c r="B10" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="16"/>
+      <c r="B11" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="16"/>
+      <c r="B12" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="16"/>
+      <c r="B14" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="16"/>
+      <c r="B15" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
+      <c r="B16" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="16"/>
+      <c r="B17" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F17" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F18" s="16">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="16"/>
+      <c r="B19" s="12">
+        <v>42310</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="16">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="12"/>
@@ -6536,4 +6789,548 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="45.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="12"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="16"/>
+      <c r="J5" s="15">
+        <f>SUMIF($C5:$C60,J$4,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" ref="K5:N5" si="0">SUMIF($C5:$C60,K$4,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="15">
+        <f>SUMIF($C5:$C60,O$4,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B6" s="12"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="16"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="12"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="16"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="12"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="16"/>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="12"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="16"/>
+      <c r="J9" s="15">
+        <f>SUMIF($D5:$D60,J$8,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" ref="K9:P9" si="1">SUMIF($D5:$D60,K$8,$F$5:$F$60)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B44" s="12"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B48" s="12"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B49" s="12"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="12"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="12"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B53" s="12"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B58" s="12"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B59" s="12"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="12"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Membre non valide" promptTitle="Membres" prompt="Saisir votre nom" sqref="C5:C60">
+      <formula1>Membres</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Code Catégories" error="Saisir code dans la liste" promptTitle="Code de Catégories" prompt="Saisir code de la catégorie" sqref="D5:D60">
+      <formula1>Code</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Temps" prompt="Entrez le temps accordée à cette tâche" sqref="F5:F60">
+      <formula1>Temps</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>